--- a/doc/02_外部設計/DB定義書_B1.xlsx
+++ b/doc/02_外部設計/DB定義書_B1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B1\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3913578F-0D3D-442F-B4EA-B4CF8ABABF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{469CFCA7-E29D-4309-8E29-2AB91350BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="246">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -207,7 +207,7 @@
     <t>ユーザー</t>
   </si>
   <si>
-    <t>user</t>
+    <t>users</t>
   </si>
   <si>
     <t>ツアー</t>
@@ -261,580 +261,674 @@
     <t>B１　浜辺の美しい蝉</t>
   </si>
   <si>
+    <t>三上健太</t>
+  </si>
+  <si>
     <t>ユーザー管理番号</t>
   </si>
   <si>
     <t>user_num</t>
   </si>
   <si>
+    <t>整数型/INTEGER</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>文字列/VARCHAR</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>user_pass</t>
+  </si>
+  <si>
+    <t>ツアー管理番号</t>
+  </si>
+  <si>
+    <t>tour_num</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>ツアー開始日</t>
+  </si>
+  <si>
+    <t>tour_sta</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ツアー終了日</t>
+  </si>
+  <si>
+    <t>tour_fin</t>
+  </si>
+  <si>
+    <t>ラウンド管理番号(１)</t>
+  </si>
+  <si>
+    <t>round_st</t>
+  </si>
+  <si>
+    <t>外部キー</t>
+  </si>
+  <si>
+    <t>ラウンド管理番号(２)</t>
+  </si>
+  <si>
+    <t>round_nd</t>
+  </si>
+  <si>
+    <t>ラウンド管理番号(３)</t>
+  </si>
+  <si>
+    <t>round_th</t>
+  </si>
+  <si>
+    <t>ラウンドステータス</t>
+  </si>
+  <si>
+    <t>round_status</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,RN</t>
+  </si>
+  <si>
+    <t>ラウンド管理番号</t>
+  </si>
+  <si>
+    <t>round_num</t>
+  </si>
+  <si>
+    <t>ホール数</t>
+  </si>
+  <si>
+    <t>hole_num</t>
+  </si>
+  <si>
+    <t>食材マイ調味料管理番号</t>
+  </si>
+  <si>
+    <t>food_myseas_num</t>
+  </si>
+  <si>
+    <t>調味料管理番号</t>
+  </si>
+  <si>
+    <t>seas_num</t>
+  </si>
+  <si>
+    <t>料理管理番号</t>
+  </si>
+  <si>
+    <t>cook_num</t>
+  </si>
+  <si>
+    <t>スコア管理番号</t>
+  </si>
+  <si>
+    <t>score_num</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>play_status</t>
+  </si>
+  <si>
+    <t>文字列型/VARCHAR</t>
+  </si>
+  <si>
+    <t>食材不足/調理前/調理中/中断/仮登録/本登録</t>
+  </si>
+  <si>
+    <t>コース名</t>
+  </si>
+  <si>
+    <t>cource_name</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>hole_date</t>
+  </si>
+  <si>
+    <t>date型/DATE</t>
+  </si>
+  <si>
+    <t>食材マイ調味料</t>
+  </si>
+  <si>
+    <t>論理名</t>
+  </si>
+  <si>
+    <t>食材管理番号</t>
+  </si>
+  <si>
+    <t>food_seas_num</t>
+  </si>
+  <si>
+    <t>整数型/INTEGRE</t>
+  </si>
+  <si>
+    <t>食材登録名</t>
+  </si>
+  <si>
+    <t>food_seas_name</t>
+  </si>
+  <si>
+    <t>文字列型/STRING</t>
+  </si>
+  <si>
+    <t>ジャンル</t>
+  </si>
+  <si>
+    <t>food_seas_genre</t>
+  </si>
+  <si>
+    <t>(meat,vege,seas,help)</t>
+  </si>
+  <si>
+    <t>在庫の有無</t>
+  </si>
+  <si>
+    <t>food_seas_stock</t>
+  </si>
+  <si>
+    <t>真偽型/BOOREAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初期値は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の方</t>
+    </r>
+  </si>
+  <si>
+    <t>砂糖</t>
+  </si>
+  <si>
+    <t>suger</t>
+  </si>
+  <si>
+    <t>塩</t>
+  </si>
+  <si>
+    <t>solt</t>
+  </si>
+  <si>
+    <t>酢</t>
+  </si>
+  <si>
+    <t>vineger</t>
+  </si>
+  <si>
+    <t>醤油</t>
+  </si>
+  <si>
+    <t>soysauce</t>
+  </si>
+  <si>
+    <t>味噌</t>
+  </si>
+  <si>
+    <t>miso</t>
+  </si>
+  <si>
+    <t>豆板醤</t>
+  </si>
+  <si>
+    <t>touban</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初期値は</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の方</t>
+    </r>
+  </si>
+  <si>
+    <t>甜麺醤</t>
+  </si>
+  <si>
+    <t>tenmen</t>
+  </si>
+  <si>
+    <t>ウェイパー</t>
+  </si>
+  <si>
+    <t>weiper</t>
+  </si>
+  <si>
+    <t>ラー油</t>
+  </si>
+  <si>
+    <t>rayu</t>
+  </si>
+  <si>
+    <t>オイスターソース</t>
+  </si>
+  <si>
+    <t>oystar</t>
+  </si>
+  <si>
+    <t>コチュジャン</t>
+  </si>
+  <si>
+    <t>kochu</t>
+  </si>
+  <si>
+    <t>唐辛子</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>クミン</t>
+  </si>
+  <si>
+    <t>kumin</t>
+  </si>
+  <si>
+    <t>ガラムマサラ</t>
+  </si>
+  <si>
+    <t>garamu</t>
+  </si>
+  <si>
+    <t>カレーパウダー</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>チリパウダー</t>
+  </si>
+  <si>
+    <t>chillpowder</t>
+  </si>
+  <si>
+    <t>コンソメ</t>
+  </si>
+  <si>
+    <t>consome</t>
+  </si>
+  <si>
+    <t>トマト缶</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>香草</t>
+  </si>
+  <si>
+    <t>herb</t>
+  </si>
+  <si>
+    <t>ワイン系</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>ブラックペッパー</t>
+  </si>
+  <si>
+    <t>blackpepper</t>
+  </si>
+  <si>
+    <t>ナンプラー</t>
+  </si>
+  <si>
+    <t>nanm</t>
+  </si>
+  <si>
+    <t>チリソース</t>
+  </si>
+  <si>
+    <t>chillsouce</t>
+  </si>
+  <si>
+    <t>ココナッツ類</t>
+  </si>
+  <si>
+    <t>coconuts</t>
+  </si>
+  <si>
+    <t>マスタード</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>ケチャップ</t>
+  </si>
+  <si>
+    <t>ketsup</t>
+  </si>
+  <si>
+    <t>マヨネーズ</t>
+  </si>
+  <si>
+    <t>mayo</t>
+  </si>
+  <si>
+    <t>BBQソース</t>
+  </si>
+  <si>
+    <t>bbq</t>
+  </si>
+  <si>
+    <t>チーズ</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cook_seas</t>
+  </si>
+  <si>
+    <t>出題調味料管理番号</t>
+  </si>
+  <si>
+    <t>cooks_seas_num</t>
+  </si>
+  <si>
+    <t>塩味の有無</t>
+  </si>
+  <si>
+    <t>solty</t>
+  </si>
+  <si>
+    <t>ユーザーには表示しない、DBで管理するだけ</t>
+  </si>
+  <si>
+    <t>地域名</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>文字列/STRING</t>
+  </si>
+  <si>
+    <t>関沼響</t>
+  </si>
+  <si>
+    <t>料理識別番号</t>
+  </si>
+  <si>
+    <t>cooks_num</t>
+  </si>
+  <si>
+    <t>整数</t>
+  </si>
+  <si>
+    <t>cooks_date</t>
+  </si>
+  <si>
+    <t>日付型</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>cooks_img</t>
+  </si>
+  <si>
+    <t>文字列</t>
+  </si>
+  <si>
+    <t>料理名</t>
+  </si>
+  <si>
+    <t>cooks_name</t>
+  </si>
+  <si>
+    <t>調理時間</t>
+  </si>
+  <si>
+    <t>cooks_time</t>
+  </si>
+  <si>
     <t>整数型</t>
   </si>
   <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
-    <t>なし</t>
-  </si>
-  <si>
-    <t>ユーザーID</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>文字列</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>user_pass</t>
-  </si>
-  <si>
-    <t>ツアー管理番号</t>
+    <t>分単位、整数</t>
+  </si>
+  <si>
+    <t>開始時間</t>
+  </si>
+  <si>
+    <t>cooks_sta</t>
+  </si>
+  <si>
+    <t>Time型？</t>
+  </si>
+  <si>
+    <t>現状time型。h2コンソールとjavaの互換性次第で変更</t>
+  </si>
+  <si>
+    <t>終了時間</t>
+  </si>
+  <si>
+    <t>cooks_fin</t>
+  </si>
+  <si>
+    <t>Time型？←仮置き</t>
+  </si>
+  <si>
+    <t>提示された食材</t>
+  </si>
+  <si>
+    <t>food_con</t>
+  </si>
+  <si>
+    <t>カンマ区切りのテキスト文(人参,じゃがいも,…)</t>
+  </si>
+  <si>
+    <t>使用した食材</t>
+  </si>
+  <si>
+    <t>food_used</t>
+  </si>
+  <si>
+    <t>提示された調味料</t>
+  </si>
+  <si>
+    <t>seas_con</t>
+  </si>
+  <si>
+    <t>カンマ区切りのテキスト文(豆板醤,オイスターソース,…)</t>
+  </si>
+  <si>
+    <t>使用した調味料</t>
+  </si>
+  <si>
+    <t>seas_used</t>
+  </si>
+  <si>
+    <t>調理満足度</t>
+  </si>
+  <si>
+    <t>cooks_satis</t>
+  </si>
+  <si>
+    <t>満足した0を基準に0,-1,-2</t>
+  </si>
+  <si>
+    <t>味満足度</t>
+  </si>
+  <si>
+    <t>aji_satis</t>
+  </si>
+  <si>
+    <t>お気に入りタグ</t>
+  </si>
+  <si>
+    <t>cooks_fav</t>
+  </si>
+  <si>
+    <t>N(Null)、D(delicious)、E(effort)、F（fast）の４種</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>cooks_com</t>
+  </si>
+  <si>
+    <t>田島規覇也</t>
+  </si>
+  <si>
+    <t>scores_num</t>
+  </si>
+  <si>
+    <t>パー数</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>調理時間スコア</t>
+  </si>
+  <si>
+    <t>time_scores</t>
+  </si>
+  <si>
+    <t>食材スコア</t>
+  </si>
+  <si>
+    <t>food_scores</t>
+  </si>
+  <si>
+    <t>調味料スコア</t>
+  </si>
+  <si>
+    <t>seas_scores</t>
+  </si>
+  <si>
+    <t>調理満足度スコア</t>
+  </si>
+  <si>
+    <t>cook__scores</t>
+  </si>
+  <si>
+    <t>味満足度スコア</t>
+  </si>
+  <si>
+    <t>taste_scores</t>
+  </si>
+  <si>
+    <t>今回のスコア</t>
+  </si>
+  <si>
+    <t>total_score</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>このテーブルは原則過去のものを引用してくるだけ？</t>
+  </si>
+  <si>
+    <t>このテーブルで新しく記入されるものはある？</t>
+  </si>
+  <si>
+    <t>ここの要素がnullになることはある？</t>
   </si>
   <si>
     <t>tours_num</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>ツアー開始日</t>
+    <t>rounds_num</t>
+  </si>
+  <si>
+    <t>hole</t>
   </si>
   <si>
     <t>tours_sta</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>ツアー終了日</t>
-  </si>
-  <si>
-    <t>tours_fin</t>
-  </si>
-  <si>
-    <t>ラウンド管理番号(１)</t>
-  </si>
-  <si>
-    <t>round_st</t>
-  </si>
-  <si>
-    <t>外部キー</t>
-  </si>
-  <si>
-    <t>ラウンド管理番号(２)</t>
-  </si>
-  <si>
-    <t>round_nd</t>
-  </si>
-  <si>
-    <t>ラウンド管理番号(３)</t>
-  </si>
-  <si>
-    <t>round_th</t>
-  </si>
-  <si>
-    <t>ラウンドステータス</t>
-  </si>
-  <si>
-    <t>round_status</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>R1,R2,R3,RN</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>ラウンド管理番号</t>
-  </si>
-  <si>
-    <t>rounds_num</t>
-  </si>
-  <si>
-    <t>整数列</t>
-  </si>
-  <si>
-    <t>ホール数</t>
-  </si>
-  <si>
-    <t>holes_num</t>
-  </si>
-  <si>
-    <t>食材マイ調味料管理番号</t>
-  </si>
-  <si>
-    <t>food_myseas_num</t>
-  </si>
-  <si>
-    <t>調味料管理番号</t>
-  </si>
-  <si>
-    <t>seas_num</t>
-  </si>
-  <si>
-    <t>料理管理番号</t>
-  </si>
-  <si>
-    <t>cooks_num</t>
-  </si>
-  <si>
-    <t>スコア管理番号</t>
-  </si>
-  <si>
-    <t>scores_num</t>
-  </si>
-  <si>
-    <t>ステータス</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>食材不足/調理前/調理中/中断/仮登録/本登録</t>
-  </si>
-  <si>
-    <t>コース名</t>
-  </si>
-  <si>
-    <t>couｒse</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>hole_date</t>
-  </si>
-  <si>
-    <t>date型</t>
-  </si>
-  <si>
-    <t>メモ</t>
-  </si>
-  <si>
-    <t>Re</t>
-  </si>
-  <si>
-    <t>食材マイ調味料</t>
-  </si>
-  <si>
-    <t>論理名</t>
-  </si>
-  <si>
-    <t>食材管理番号</t>
-  </si>
-  <si>
-    <t>food_seas_num</t>
-  </si>
-  <si>
-    <t>食材登録名</t>
-  </si>
-  <si>
-    <t>food_seas_name</t>
-  </si>
-  <si>
-    <t>ジャンル</t>
-  </si>
-  <si>
-    <t>food_seas_genre</t>
-  </si>
-  <si>
-    <t>(meat,vege,seas,help)</t>
-  </si>
-  <si>
-    <t>在庫の有無</t>
-  </si>
-  <si>
-    <t>food_seas_stock</t>
-  </si>
-  <si>
-    <t>真偽型</t>
-  </si>
-  <si>
-    <t>砂糖</t>
-  </si>
-  <si>
-    <t>suger</t>
-  </si>
-  <si>
-    <t>塩</t>
-  </si>
-  <si>
-    <t>solt</t>
-  </si>
-  <si>
-    <t>酢</t>
-  </si>
-  <si>
-    <t>vineger</t>
-  </si>
-  <si>
-    <t>醤油</t>
-  </si>
-  <si>
-    <t>soysauce</t>
-  </si>
-  <si>
-    <t>味噌</t>
-  </si>
-  <si>
-    <t>miso</t>
-  </si>
-  <si>
-    <t>豆板醤</t>
-  </si>
-  <si>
-    <t>touban</t>
-  </si>
-  <si>
-    <t>甜麺醤</t>
-  </si>
-  <si>
-    <t>tenmen</t>
-  </si>
-  <si>
-    <t>ウェイパー</t>
-  </si>
-  <si>
-    <t>weiper</t>
-  </si>
-  <si>
-    <t>ラー油</t>
-  </si>
-  <si>
-    <t>rayu</t>
-  </si>
-  <si>
-    <t>オイスターソース</t>
-  </si>
-  <si>
-    <t>oystar</t>
-  </si>
-  <si>
-    <t>コチュジャン</t>
-  </si>
-  <si>
-    <t>kochu</t>
-  </si>
-  <si>
-    <t>唐辛子</t>
-  </si>
-  <si>
-    <t>chill</t>
-  </si>
-  <si>
-    <t>クミン</t>
-  </si>
-  <si>
-    <t>kumin</t>
-  </si>
-  <si>
-    <t>ガラムマサラ</t>
-  </si>
-  <si>
-    <t>garamu</t>
-  </si>
-  <si>
-    <t>カレーパウダー</t>
-  </si>
-  <si>
-    <t>curry</t>
-  </si>
-  <si>
-    <t>チリパウダー</t>
-  </si>
-  <si>
-    <t>chillpowder</t>
-  </si>
-  <si>
-    <t>コンソメ</t>
-  </si>
-  <si>
-    <t>consome</t>
-  </si>
-  <si>
-    <t>トマト缶</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>香草</t>
-  </si>
-  <si>
-    <t>herb</t>
-  </si>
-  <si>
-    <t>ワイン系</t>
-  </si>
-  <si>
-    <t>wine</t>
-  </si>
-  <si>
-    <t>ブラックペッパー</t>
-  </si>
-  <si>
-    <t>blackpepper</t>
-  </si>
-  <si>
-    <t>ナンプラー</t>
-  </si>
-  <si>
-    <t>nanm</t>
-  </si>
-  <si>
-    <t>チリソース</t>
-  </si>
-  <si>
-    <t>chillsouce</t>
-  </si>
-  <si>
-    <t>ココナッツ類</t>
-  </si>
-  <si>
-    <t>coconuts</t>
-  </si>
-  <si>
-    <t>マスタード</t>
-  </si>
-  <si>
-    <t>mustard</t>
-  </si>
-  <si>
-    <t>ケチャップ</t>
-  </si>
-  <si>
-    <t>ketsup</t>
-  </si>
-  <si>
-    <t>マヨネーズ</t>
-  </si>
-  <si>
-    <t>mayo</t>
-  </si>
-  <si>
-    <t>BBQソース</t>
-  </si>
-  <si>
-    <t>bbq</t>
-  </si>
-  <si>
-    <t>チーズ</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>No.1とNo.2は両方調味料に関する管理番号
-No.1は出題における番号
-No.2は在庫における調味料の番号</t>
-  </si>
-  <si>
-    <t>cook_seas</t>
-  </si>
-  <si>
-    <t>出題調味料管理番号</t>
-  </si>
-  <si>
-    <t>cooks_seas_num</t>
-  </si>
-  <si>
-    <t>塩味の有無</t>
-  </si>
-  <si>
-    <t>solty</t>
-  </si>
-  <si>
-    <t>地域名</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>料理識別番号</t>
-  </si>
-  <si>
-    <t>整数</t>
-  </si>
-  <si>
-    <t>cooks_date</t>
-  </si>
-  <si>
-    <t>日付型</t>
-  </si>
-  <si>
-    <t>画像</t>
-  </si>
-  <si>
-    <t>cooks_img</t>
-  </si>
-  <si>
-    <t>料理名</t>
-  </si>
-  <si>
-    <t>cooks_name</t>
-  </si>
-  <si>
-    <t>調理時間</t>
-  </si>
-  <si>
-    <t>cooks_time</t>
-  </si>
-  <si>
-    <t>分単位、整数</t>
-  </si>
-  <si>
-    <t>開始時間</t>
-  </si>
-  <si>
-    <t>cooks_sta</t>
-  </si>
-  <si>
-    <t>Time型？</t>
-  </si>
-  <si>
-    <t>現状time型。h2コンソールとjavaの互換性次第で変更</t>
-  </si>
-  <si>
-    <t>終了時間</t>
-  </si>
-  <si>
-    <t>cooks_fin</t>
-  </si>
-  <si>
-    <t>Time型？←仮置き</t>
-  </si>
-  <si>
-    <t>提示された食材</t>
-  </si>
-  <si>
-    <t>food_con</t>
-  </si>
-  <si>
-    <t>カンマ区切りのテキスト文(人参,じゃがいも,…)</t>
-  </si>
-  <si>
-    <t>使用した食材</t>
-  </si>
-  <si>
-    <t>food_used</t>
-  </si>
-  <si>
-    <t>提示された調味料</t>
-  </si>
-  <si>
-    <t>seas_con</t>
-  </si>
-  <si>
-    <t>カンマ区切りのテキスト文(豆板醤,オイスターソース,…)</t>
-  </si>
-  <si>
-    <t>使用した調味料</t>
-  </si>
-  <si>
-    <t>seas_used</t>
-  </si>
-  <si>
-    <t>調理満足度</t>
-  </si>
-  <si>
-    <t>cooks_satis</t>
-  </si>
-  <si>
-    <t>満足した0を基準に0,-1,-2</t>
-  </si>
-  <si>
-    <t>味満足度</t>
-  </si>
-  <si>
-    <t>aji_satis</t>
-  </si>
-  <si>
-    <t>お気に入りタグ</t>
-  </si>
-  <si>
-    <t>cooks_fav</t>
-  </si>
-  <si>
-    <t>N(Null)、D(delicious)、E(effort)、F（fast）の４種</t>
-  </si>
-  <si>
-    <t>コメント</t>
-  </si>
-  <si>
-    <t>cooks_com</t>
-  </si>
-  <si>
-    <t>パー数</t>
-  </si>
-  <si>
-    <t>par</t>
-  </si>
-  <si>
-    <t>調理時間スコア</t>
-  </si>
-  <si>
-    <t>time_scores</t>
-  </si>
-  <si>
-    <t>食材スコア</t>
-  </si>
-  <si>
-    <t>food_scores</t>
-  </si>
-  <si>
-    <t>調味料スコア</t>
-  </si>
-  <si>
-    <t>seas_scores</t>
-  </si>
-  <si>
-    <t>調理満足度スコア</t>
-  </si>
-  <si>
-    <t>cook__scores</t>
-  </si>
-  <si>
-    <t>味満足度スコア</t>
-  </si>
-  <si>
-    <t>taste_scores</t>
-  </si>
-  <si>
-    <t>今回のスコア</t>
-  </si>
-  <si>
-    <t>total_score</t>
-  </si>
-  <si>
-    <t>このテーブルは原則過去のものを引用してくるだけ？</t>
-  </si>
-  <si>
-    <t>このテーブルで新しく記入されるものはある？</t>
-  </si>
-  <si>
-    <t>ここの要素がnullになることはある？</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>tour_fin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +965,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -993,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1034,6 +1136,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1352,12 +1460,12 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1819,13 +1927,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1842,7 +1950,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1923,19 +2033,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1951,13 +2061,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -1977,13 +2087,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -2003,13 +2113,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -2029,13 +2139,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -2055,13 +2165,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -2081,13 +2191,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -2107,13 +2217,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -2359,26 +2469,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AE87AF-165B-44AE-862B-64257AF93AEC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2392,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -2412,7 +2522,7 @@
         <v>45459</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -2427,7 +2537,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="J4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -2479,13 +2589,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
@@ -2493,7 +2603,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -2507,13 +2617,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -2521,7 +2631,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -2535,23 +2645,23 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2568,20 +2678,20 @@
         <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2595,23 +2705,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2625,19 +2735,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2651,19 +2761,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>233</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2677,13 +2787,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3">
         <v>5</v>
@@ -2691,7 +2801,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2711,7 +2821,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -2719,7 +2829,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2945,17 +3055,17 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.2">
@@ -3347,19 +3457,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3404,7 +3514,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3416,7 +3528,9 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45459</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3451,7 +3565,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table user (</v>
+        <v>create table users (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3459,31 +3573,33 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_num 整数型 (5),</v>
+        <v>user_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3491,31 +3607,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id 文字列 (15),</v>
+        <v>user_id 文字列/VARCHAR (15),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3523,31 +3637,29 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_pass 文字列 (20)</v>
+        <v>user_pass 文字列/VARCHAR (20)</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3871,18 +3983,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6424DCB-92C4-4388-B916-059BE03A9D62}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3899,7 +4011,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -3925,7 +4039,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -3937,7 +4053,9 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3976,31 +4094,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>tours_num int (5),</v>
+        <v>tour_num INTEGER (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,29 +4126,27 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="10"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_num int (5),</v>
+        <v>user_num INTEGER (5),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4038,27 +4154,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>tours_sta date (8),</v>
+        <v>tour_sta DATE (10),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4066,16 +4182,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4084,7 +4200,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>tours_fin date (8),</v>
+        <v>tour_fin DATE (10),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4092,29 +4208,29 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>round_st int (5),</v>
+        <v>round_st INTEGER (5),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4122,29 +4238,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>round_nd int (5),</v>
+        <v>round_nd INTEGER (5),</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -4152,29 +4266,27 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>round_th int (5),</v>
+        <v>round_th INTEGER (5),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4182,27 +4294,29 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>round_status String (2)</v>
+        <v>round_status CHAR (2)</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4436,19 +4550,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72405C-5A86-4609-86C8-FF23D46DE90B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4493,19 +4607,23 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -4550,25 +4668,25 @@
         <v>77</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>rounds_num 整数列 (5),</v>
+        <v>round_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4576,31 +4694,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>holes_num 整数列 (2),</v>
+        <v>hole_num 整数型/INTEGER (1),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4608,29 +4724,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>food_myseas_num 整数列 (5),</v>
+        <v>food_myseas_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4638,29 +4752,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>seas_num 整数列 (5),</v>
+        <v>seas_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -4668,29 +4780,27 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>cooks_num 整数列 (5),</v>
+        <v>cook_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -4698,29 +4808,27 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>scores_num 整数列 (5),</v>
+        <v>score_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
@@ -4728,13 +4836,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E16" s="3">
         <v>4</v>
@@ -4742,7 +4850,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="11" t="s">
@@ -4750,7 +4858,7 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>status 文字列 (4),</v>
+        <v>play_status 文字列型/VARCHAR (4),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -4764,21 +4872,19 @@
         <v>93</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3">
         <v>10</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>couｒse 文字列 (10),</v>
+        <v>cource_name 文字列型/VARCHAR (10),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -4804,7 +4910,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>hole_date date型 (10)</v>
+        <v>hole_date date型/DATE (10)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5021,26 +5127,23 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -5052,10 +5155,10 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="J2" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -5068,22 +5171,24 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>45449</v>
-      </c>
-      <c r="J3" s="14"/>
+        <v>45460</v>
+      </c>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="J4" s="14"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -5095,14 +5200,16 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -5138,31 +5245,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>food_seas_num 整数型 (5),</v>
+        <v>food_seas_num 整数型/INTEGRE (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,13 +5277,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -5184,13 +5291,13 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>food_seas_name 文字列 (20),</v>
+        <v>food_seas_name 文字列型/STRING (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5204,7 +5311,7 @@
         <v>106</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -5212,7 +5319,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
@@ -5220,7 +5327,7 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
-        <v>food_seas_genre 文字列 (4),</v>
+        <v>food_seas_genre 文字列型/STRING (4),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5242,11 +5349,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
-        <v>food_seas_stock 真偽型 (1)</v>
+        <v>food_seas_stock 真偽型/BOOREAN (1)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5556,18 +5667,18 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5584,7 +5695,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -5597,7 +5710,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="5">
-        <v>45449</v>
+        <v>45460</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5665,31 +5778,31 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>seas_num 整数型 (5),</v>
+        <v>seas_num 整数型/INTEGRE (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5697,25 +5810,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -5725,10 +5838,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>110</v>
@@ -5740,10 +5853,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>suger 真偽型 (1),</v>
+        <v>suger 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5751,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>110</v>
@@ -5766,10 +5881,12 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>solt 真偽型 (1),</v>
+        <v>solt 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5777,10 +5894,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>110</v>
@@ -5792,10 +5909,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>vineger 真偽型 (1),</v>
+        <v>vineger 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -5803,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>110</v>
@@ -5818,7 +5937,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L15" t="e">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -5829,10 +5950,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>110</v>
@@ -5844,7 +5965,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -5855,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>110</v>
@@ -5870,10 +5993,12 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v>touban 真偽型 (1),</v>
+        <v>touban 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5881,10 +6006,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>110</v>
@@ -5896,10 +6021,12 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L18" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v>tenmen 真偽型 (1),</v>
+        <v>tenmen 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5907,10 +6034,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>110</v>
@@ -5922,10 +6049,12 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L19" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
-        <v>weiper 真偽型 (1),</v>
+        <v>weiper 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5933,10 +6062,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>110</v>
@@ -5948,10 +6077,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>rayu 真偽型 (1),</v>
+        <v>rayu 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -5959,10 +6090,10 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>110</v>
@@ -5974,10 +6105,12 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>oystar 真偽型 (1),</v>
+        <v>oystar 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -5985,10 +6118,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>110</v>
@@ -6000,7 +6133,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L22" t="e">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6011,10 +6146,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>110</v>
@@ -6026,10 +6161,12 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L23" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>chill 真偽型 (1),</v>
+        <v>chill 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -6037,10 +6174,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>110</v>
@@ -6052,10 +6189,12 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L24" t="str">
         <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v>kumin 真偽型 (1),</v>
+        <v>kumin 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -6063,10 +6202,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>110</v>
@@ -6078,10 +6217,12 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L25" t="str">
         <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v>garamu 真偽型 (1),</v>
+        <v>garamu 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -6089,10 +6230,10 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>110</v>
@@ -6104,7 +6245,9 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L26" t="e">
         <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
@@ -6115,10 +6258,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>110</v>
@@ -6130,7 +6273,9 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="L27" t="s">
         <v>18</v>
       </c>
@@ -6140,10 +6285,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>110</v>
@@ -6155,17 +6300,19 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>110</v>
@@ -6177,17 +6324,19 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>110</v>
@@ -6199,17 +6348,19 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>110</v>
@@ -6221,17 +6372,19 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>110</v>
@@ -6243,17 +6396,19 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>110</v>
@@ -6265,17 +6420,19 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>110</v>
@@ -6287,17 +6444,19 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>110</v>
@@ -6309,17 +6468,19 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>110</v>
@@ -6331,17 +6492,19 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>110</v>
@@ -6353,17 +6516,19 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>110</v>
@@ -6375,17 +6540,19 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>110</v>
@@ -6397,17 +6564,19 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>110</v>
@@ -6419,7 +6588,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="14" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
@@ -6443,29 +6614,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C16A6D-A143-47DB-A6D8-2EF5AAB36E40}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="J1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="52.8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6478,9 +6646,7 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>169</v>
-      </c>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -6506,19 +6672,23 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45460</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -6557,27 +6727,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>cooks_seas_num 整数型 (5),</v>
+        <v>cooks_seas_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6585,13 +6757,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
@@ -6601,11 +6773,11 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>seas_num 整数型 (5),</v>
+        <v>seas_num 整数型/INTEGER (5),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6613,10 +6785,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>110</v>
@@ -6628,10 +6800,12 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>solty 真偽型 (1),</v>
+        <v>solty 真偽型/BOOREAN (1),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6639,13 +6813,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -6657,7 +6831,7 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>region 文字列 (10)</v>
+        <v>region 文字列/STRING (10)</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6970,13 +7144,13 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" customWidth="1"/>
     <col min="16384" max="16384" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6994,7 +7168,9 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -7020,7 +7196,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -7032,7 +7210,9 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="15">
+        <v>45461</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -7075,23 +7255,23 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -7108,10 +7288,10 @@
         <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E11" s="3">
         <v>10</v>
@@ -7131,19 +7311,19 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -7157,13 +7337,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E13" s="3">
         <v>50</v>
@@ -7171,7 +7351,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -7185,23 +7365,23 @@
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="0"/>
@@ -7213,23 +7393,23 @@
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -7241,19 +7421,19 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -7267,13 +7447,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -7281,11 +7461,11 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
@@ -7297,13 +7477,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E18" s="3">
         <v>500</v>
@@ -7311,11 +7491,11 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -7327,13 +7507,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E19" s="3">
         <v>500</v>
@@ -7341,11 +7521,11 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L19" t="str">
         <f>C20&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
@@ -7357,13 +7537,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -7371,11 +7551,11 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="L20" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
@@ -7387,13 +7567,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -7401,11 +7581,11 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L21" t="str">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
@@ -7417,13 +7597,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3">
         <v>2</v>
@@ -7431,11 +7611,11 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L22" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
@@ -7447,13 +7627,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -7463,7 +7643,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L23" t="e">
         <f>C24&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
@@ -7475,13 +7655,13 @@
         <v>15</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -7507,7 +7687,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>

--- a/doc/02_外部設計/DB定義書_B1.xlsx
+++ b/doc/02_外部設計/DB定義書_B1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27823"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\B1\doc\02_外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://seplus2016-my.sharepoint.com/personal/iki-haruto-plusdojo2024_seplus2016_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469CFCA7-E29D-4309-8E29-2AB91350BD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE15C6A0-DEB5-4851-9914-B6AA8FF4CE3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレ" sheetId="8" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="261">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -261,6 +261,12 @@
     <t>B１　浜辺の美しい蝉</t>
   </si>
   <si>
+    <t>DB作成者</t>
+  </si>
+  <si>
+    <t>状態（済/未）</t>
+  </si>
+  <si>
     <t>三上健太</t>
   </si>
   <si>
@@ -285,7 +291,7 @@
     <t>ユーザーID</t>
   </si>
   <si>
-    <t>user_id</t>
+    <t>user_name</t>
   </si>
   <si>
     <t>文字列/VARCHAR</t>
@@ -297,6 +303,9 @@
     <t>user_pass</t>
   </si>
   <si>
+    <t>三上メモ</t>
+  </si>
+  <si>
     <t>ツアー管理番号</t>
   </si>
   <si>
@@ -306,6 +315,9 @@
     <t>INTEGER</t>
   </si>
   <si>
+    <t>外部キー</t>
+  </si>
+  <si>
     <t>ツアー開始日</t>
   </si>
   <si>
@@ -327,9 +339,6 @@
     <t>round_st</t>
   </si>
   <si>
-    <t>外部キー</t>
-  </si>
-  <si>
     <t>ラウンド管理番号(２)</t>
   </si>
   <si>
@@ -354,6 +363,9 @@
     <t>R1,R2,R3,RN</t>
   </si>
   <si>
+    <t>Rou</t>
+  </si>
+  <si>
     <t>ラウンド管理番号</t>
   </si>
   <si>
@@ -369,7 +381,7 @@
     <t>食材マイ調味料管理番号</t>
   </si>
   <si>
-    <t>food_myseas_num</t>
+    <t>food_seas_num</t>
   </si>
   <si>
     <t>調味料管理番号</t>
@@ -387,7 +399,7 @@
     <t>スコア管理番号</t>
   </si>
   <si>
-    <t>score_num</t>
+    <t>scores_num</t>
   </si>
   <si>
     <t>ステータス</t>
@@ -405,7 +417,7 @@
     <t>コース名</t>
   </si>
   <si>
-    <t>cource_name</t>
+    <t>course_name</t>
   </si>
   <si>
     <t>日付</t>
@@ -417,19 +429,34 @@
     <t>date型/DATE</t>
   </si>
   <si>
+    <t>持田</t>
+  </si>
+  <si>
+    <t>状態（済）</t>
+  </si>
+  <si>
     <t>食材マイ調味料</t>
   </si>
   <si>
     <t>論理名</t>
   </si>
   <si>
+    <t>食材BOX番号</t>
+  </si>
+  <si>
+    <t>food_box_num</t>
+  </si>
+  <si>
+    <t>整数型/INTEGRE</t>
+  </si>
+  <si>
     <t>食材管理番号</t>
   </si>
   <si>
-    <t>food_seas_num</t>
-  </si>
-  <si>
-    <t>整数型/INTEGRE</t>
+    <t>ユーザ管理番号</t>
+  </si>
+  <si>
+    <t>NEXT VALUE FOR "PUBLIC"."SYSTEM_SEQUENCE_30F4D0DB_7B41_48B3_A2C6_F150E92CCC38"</t>
   </si>
   <si>
     <t>食材登録名</t>
@@ -463,8 +490,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>初期値は</t>
@@ -474,8 +500,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>あり</t>
@@ -484,14 +509,16 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>の方</t>
     </r>
   </si>
   <si>
+    <t>澤田</t>
+  </si>
+  <si>
     <t>砂糖</t>
   </si>
   <si>
@@ -532,8 +559,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>初期値は</t>
@@ -543,8 +569,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>なし</t>
@@ -553,8 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
       <t>の方</t>
@@ -699,13 +723,13 @@
     <t>cheese</t>
   </si>
   <si>
-    <t>cook_seas</t>
+    <t>いき</t>
   </si>
   <si>
     <t>出題調味料管理番号</t>
   </si>
   <si>
-    <t>cooks_seas_num</t>
+    <t>cook_seas_num</t>
   </si>
   <si>
     <t>塩味の有無</t>
@@ -723,22 +747,37 @@
     <t>region</t>
   </si>
   <si>
-    <t>文字列/STRING</t>
+    <t>文字列/CHAR</t>
+  </si>
+  <si>
+    <t>調味料名</t>
+  </si>
+  <si>
+    <t>seas_column_name</t>
+  </si>
+  <si>
+    <t>seas_name</t>
+  </si>
+  <si>
+    <t>seasテーブルのカラム名を格納</t>
+  </si>
+  <si>
+    <t>seasテーブルのカラム名に対応した調味料の名前</t>
   </si>
   <si>
     <t>関沼響</t>
   </si>
   <si>
+    <t>済</t>
+  </si>
+  <si>
     <t>料理識別番号</t>
   </si>
   <si>
-    <t>cooks_num</t>
-  </si>
-  <si>
     <t>整数</t>
   </si>
   <si>
-    <t>cooks_date</t>
+    <t>cook_date</t>
   </si>
   <si>
     <t>日付型</t>
@@ -747,7 +786,7 @@
     <t>画像</t>
   </si>
   <si>
-    <t>cooks_img</t>
+    <t>cook_img</t>
   </si>
   <si>
     <t>文字列</t>
@@ -756,13 +795,13 @@
     <t>料理名</t>
   </si>
   <si>
-    <t>cooks_name</t>
+    <t>cook_name</t>
   </si>
   <si>
     <t>調理時間</t>
   </si>
   <si>
-    <t>cooks_time</t>
+    <t>cook_time</t>
   </si>
   <si>
     <t>整数型</t>
@@ -774,10 +813,10 @@
     <t>開始時間</t>
   </si>
   <si>
-    <t>cooks_sta</t>
-  </si>
-  <si>
-    <t>Time型？</t>
+    <t>cook_sta</t>
+  </si>
+  <si>
+    <t>Time型</t>
   </si>
   <si>
     <t>現状time型。h2コンソールとjavaの互換性次第で変更</t>
@@ -786,10 +825,7 @@
     <t>終了時間</t>
   </si>
   <si>
-    <t>cooks_fin</t>
-  </si>
-  <si>
-    <t>Time型？←仮置き</t>
+    <t>cook_fin</t>
   </si>
   <si>
     <t>提示された食材</t>
@@ -825,7 +861,7 @@
     <t>調理満足度</t>
   </si>
   <si>
-    <t>cooks_satis</t>
+    <t>cook_satis</t>
   </si>
   <si>
     <t>満足した0を基準に0,-1,-2</t>
@@ -840,22 +876,25 @@
     <t>お気に入りタグ</t>
   </si>
   <si>
-    <t>cooks_fav</t>
+    <t>cook_fav</t>
   </si>
   <si>
     <t>N(Null)、D(delicious)、E(effort)、F（fast）の４種</t>
   </si>
   <si>
+    <t>cuo</t>
+  </si>
+  <si>
     <t>コメント</t>
   </si>
   <si>
-    <t>cooks_com</t>
+    <t>cook_com</t>
   </si>
   <si>
     <t>田島規覇也</t>
   </si>
   <si>
-    <t>scores_num</t>
+    <t>田島</t>
   </si>
   <si>
     <t>パー数</t>
@@ -912,23 +951,23 @@
     <t>ここの要素がnullになることはある？</t>
   </si>
   <si>
-    <t>tours_num</t>
-  </si>
-  <si>
-    <t>rounds_num</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>tours_sta</t>
+    <t>コース</t>
+  </si>
+  <si>
+    <t>courｓe_name</t>
+  </si>
+  <si>
+    <t>文字列型</t>
+  </si>
+  <si>
+    <t>パー</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,23 +996,46 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1095,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,9 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1138,10 +1197,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1457,22 +1528,22 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1553,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="13.15">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1565,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="13.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +1575,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.15">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1585,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1564,7 +1635,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -1582,7 +1653,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1600,7 +1671,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1618,7 +1689,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1636,7 +1707,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -1654,7 +1725,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1672,7 +1743,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -1690,7 +1761,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1708,7 +1779,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -1726,7 +1797,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -1744,7 +1815,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -1762,7 +1833,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -1780,7 +1851,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -1798,7 +1869,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -1816,7 +1887,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -1834,7 +1905,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -1852,7 +1923,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -1870,7 +1941,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -1888,7 +1959,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -1906,7 +1977,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.15">
       <c r="L30" t="s">
         <v>18</v>
       </c>
@@ -1921,26 +1992,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD656D-7982-46BD-8502-C860F66EF552}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,10 +2022,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1967,8 +2044,11 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1978,9 +2058,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1990,9 +2072,11 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="14">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2028,46 +2112,50 @@
         <v>create table scores (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>scores_num 整数型 (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -2078,22 +2166,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>par 整数型 (3),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="13.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -2104,22 +2192,22 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>time_scores 整数型 (3),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
@@ -2130,22 +2218,22 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>food_scores 整数型 (3),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -2156,22 +2244,22 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>seas_scores 整数型 (3),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
@@ -2182,22 +2270,22 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>cook__scores 整数型 (3),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -2208,22 +2296,22 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>taste_scores 整数型 (3),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -2234,11 +2322,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>total_score 整数型 (3)</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -2252,11 +2340,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -2270,11 +2358,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2288,11 +2376,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -2306,11 +2394,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -2324,11 +2412,670 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AE87AF-165B-44AE-862B-64257AF93AEC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19.149999999999999">
+      <c r="A1" s="4"/>
+      <c r="J1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45459</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.15">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="J4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.15">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>scores_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>tour_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>round_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>hole_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>tour_sta 日付型 (10),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>tour_fin 日付型 (10),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>cook_num 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>scores 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>cook_date 日付型 (10),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v>courｓe_name 文字列型 (10),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="3">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v>total_score 整数型 (10),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v>par 整数型 (10)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -2346,7 +3093,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -2364,7 +3111,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -2382,7 +3129,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -2400,7 +3147,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -2418,7 +3165,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -2436,7 +3183,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -2454,589 +3201,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AE87AF-165B-44AE-862B-64257AF93AEC}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="J1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45459</v>
-      </c>
-      <c r="J3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="J4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>scores_num 整数型 (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_num 整数型 (5),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>tours_num 整数型 (5),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>rounds_num 整数型 (5),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>hole 整数型 (2),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>tours_sta 日付型 ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>tour_fin 日付型 ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="3">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>cooks_num 整数型 (5),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>scores 整数型 (3)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.15">
       <c r="L30" t="s">
         <v>18</v>
       </c>
@@ -3055,25 +3220,25 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="58.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="58.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.149999999999999">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="13.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3087,7 +3252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13.15" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3100,22 +3265,22 @@
       <c r="E3" s="5">
         <v>45453</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.15" customHeight="1">
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13.15" customHeight="1">
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="13.15" customHeight="1"/>
+    <row r="7" spans="1:8" ht="13.15" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -3132,7 +3297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="13.15" customHeight="1">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -3145,7 +3310,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13.15" customHeight="1">
       <c r="B9" s="2">
         <v>2</v>
       </c>
@@ -3158,7 +3323,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13.15" customHeight="1">
       <c r="B10" s="2">
         <v>3</v>
       </c>
@@ -3171,7 +3336,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="13.15" customHeight="1">
       <c r="B11" s="2">
         <v>4</v>
       </c>
@@ -3184,7 +3349,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="13.15" customHeight="1">
       <c r="B12" s="2">
         <v>5</v>
       </c>
@@ -3197,7 +3362,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.15" customHeight="1">
       <c r="B13" s="2">
         <v>6</v>
       </c>
@@ -3210,7 +3375,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13.15" customHeight="1">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -3223,7 +3388,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="13.15" customHeight="1">
       <c r="B15" s="2">
         <v>8</v>
       </c>
@@ -3236,7 +3401,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="13.15" customHeight="1">
       <c r="B16" s="2">
         <v>9</v>
       </c>
@@ -3249,7 +3414,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="13.15" customHeight="1">
       <c r="B17" s="2">
         <v>10</v>
       </c>
@@ -3258,7 +3423,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="13.15" customHeight="1">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -3266,7 +3431,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="13.15" customHeight="1">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -3275,7 +3440,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="13.15" customHeight="1">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -3284,7 +3449,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="13.15" customHeight="1">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -3293,7 +3458,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="13.5">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -3302,7 +3467,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -3311,7 +3476,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -3320,7 +3485,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -3329,7 +3494,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -3338,7 +3503,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -3347,7 +3512,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -3356,7 +3521,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -3365,7 +3530,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -3374,7 +3539,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -3383,7 +3548,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -3392,7 +3557,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -3401,7 +3566,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -3410,7 +3575,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -3419,7 +3584,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -3428,7 +3593,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -3437,7 +3602,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -3461,22 +3626,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.15"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="13.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3486,11 +3651,14 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3503,8 +3671,11 @@
       <c r="E3" s="5">
         <v>45459</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3515,10 +3686,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3532,7 +3703,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3568,33 +3739,33 @@
         <v>create table users (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
@@ -3602,18 +3773,18 @@
         <v>user_num 整数型/INTEGER (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3">
         <v>15</v>
@@ -3621,29 +3792,29 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id 文字列/VARCHAR (15),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>user_name 文字列/VARCHAR (15),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>20</v>
@@ -3651,10 +3822,10 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -3662,7 +3833,7 @@
         <v>user_pass 文字列/VARCHAR (20)</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -3680,7 +3851,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3698,7 +3869,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -3716,7 +3887,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -3734,7 +3905,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -3752,7 +3923,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -3770,7 +3941,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -3788,7 +3959,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -3806,7 +3977,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -3824,7 +3995,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -3842,7 +4013,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -3860,7 +4031,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -3878,7 +4049,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -3896,7 +4067,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -3914,7 +4085,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -3932,7 +4103,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -3950,7 +4121,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -3968,7 +4139,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="L30" t="s">
         <v>18</v>
       </c>
@@ -3983,29 +4154,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6424DCB-92C4-4388-B916-059BE03A9D62}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -4014,8 +4186,14 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4028,8 +4206,11 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4040,10 +4221,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.15">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4057,7 +4238,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4089,30 +4270,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4121,55 +4302,53 @@
         <v>tour_num INTEGER (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_num INTEGER (5),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
@@ -4177,18 +4356,18 @@
         <v>tour_sta DATE (10),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="13.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3">
         <v>10</v>
@@ -4203,48 +4382,44 @@
         <v>tour_fin DATE (10),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="13.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>round_st INTEGER (5),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="13.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -4253,26 +4428,24 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>round_nd INTEGER (5),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -4281,45 +4454,41 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
         <v>round_th INTEGER (5),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>round_status CHAR (2)</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -4337,7 +4506,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -4355,7 +4524,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -4373,7 +4542,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -4391,7 +4560,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -4409,7 +4578,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -4427,7 +4596,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -4445,7 +4614,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -4463,7 +4632,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -4481,7 +4650,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -4499,7 +4668,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -4517,7 +4686,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -4535,7 +4704,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="13.15">
       <c r="L30" t="s">
         <v>18</v>
       </c>
@@ -4548,28 +4717,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D72405C-5A86-4609-86C8-FF23D46DE90B}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4582,8 +4751,14 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4596,8 +4771,11 @@
       <c r="E3" s="5">
         <v>45459</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -4608,10 +4786,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.15">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -4625,7 +4803,7 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -4657,30 +4835,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -4689,76 +4867,72 @@
         <v>round_num 整数型/INTEGER (5),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="13.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>hole_num 整数型/INTEGER (1),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
         <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>food_myseas_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.15">
       <c r="A13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>5</v>
@@ -4768,25 +4942,25 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>seas_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>food_seas_num 整数型/INTEGER (5),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.15">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -4796,25 +4970,25 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>cook_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>seas_num 整数型/INTEGER (5),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.15">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -4824,81 +4998,83 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>score_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.2">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>cook_num 整数型/INTEGER (5),</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="11" t="s">
-        <v>91</v>
+      <c r="J16" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="L16" t="str">
+        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>scores_num 整数型/INTEGER (5),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="27">
+      <c r="A17" s="3">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="0"/>
         <v>play_status 文字列型/VARCHAR (4),</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>cource_name 文字列型/VARCHAR (10),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
       <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="E18" s="3">
         <v>10</v>
@@ -4910,17 +5086,25 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>hole_date date型/DATE (10)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>course_name 文字列型/VARCHAR (10),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -4928,12 +5112,12 @@
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>hole_date date型/DATE (10)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4949,9 +5133,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4967,9 +5151,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4985,9 +5169,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5003,9 +5187,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5021,9 +5205,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5039,9 +5223,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -5057,9 +5241,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -5075,9 +5259,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5093,9 +5277,9 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="13.15">
       <c r="A29" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5111,8 +5295,26 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+    <row r="30" spans="1:12" ht="13.15">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.15">
+      <c r="L31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5124,28 +5326,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0325A-A4BA-4741-90EC-452AB862F8FA}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5158,9 +5360,15 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5173,14 +5381,17 @@
       <c r="E3" s="5">
         <v>45460</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5188,9 +5399,9 @@
       <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5204,12 +5415,12 @@
         <v>45461</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -5240,163 +5451,189 @@
         <v>create table food_seas (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L29" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>food_seas_num 整数型/INTEGRE (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>food_box_num 整数型/INTEGRE (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>food_seas_name 文字列型/STRING (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>food_seas_num 整数型/INTEGRE (5),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>110</v>
+      </c>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>food_seas_genre 文字列型/STRING (4),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>user_num 整数型/INTEGRE (5),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>food_seas_stock 真偽型/BOOREAN (1)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>food_seas_name 文字列型/STRING (20),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>food_seas_genre 文字列型/STRING (4),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>120</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>food_seas_stock 真偽型/BOOREAN (1)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -5410,11 +5647,11 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -5428,11 +5665,11 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -5446,11 +5683,11 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -5464,11 +5701,11 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -5482,11 +5719,11 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -5500,11 +5737,11 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -5518,11 +5755,11 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -5536,11 +5773,11 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -5554,11 +5791,11 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -5572,11 +5809,11 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -5590,11 +5827,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -5608,11 +5845,11 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -5626,11 +5863,11 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.15">
       <c r="A29" s="3">
         <v>20</v>
       </c>
@@ -5644,13 +5881,8 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>18</v>
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
   </sheetData>
@@ -5666,26 +5898,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C6D8D-C2C2-4A91-A28D-388FA396C3C4}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5698,8 +5930,14 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5712,8 +5950,11 @@
       <c r="E3" s="5">
         <v>45460</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -5725,7 +5966,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -5737,7 +5978,7 @@
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -5773,78 +6014,78 @@
         <v>create table seas (</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>seas_num 整数型/INTEGRE (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>seas_num 整数型/INTEGER (5),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.15">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -5852,27 +6093,29 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="14" t="s">
-        <v>111</v>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>suger 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -5880,27 +6123,29 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="14" t="s">
-        <v>111</v>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>solt 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -5908,27 +6153,29 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="14" t="s">
-        <v>111</v>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>vineger 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -5936,27 +6183,29 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="14" t="s">
-        <v>111</v>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="L15" t="e">
         <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -5964,27 +6213,29 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="14" t="s">
-        <v>111</v>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="L16" t="e">
         <f>#REF!&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -5992,27 +6243,29 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="14" t="s">
-        <v>124</v>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L17" t="str">
         <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
         <v>touban 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -6020,27 +6273,29 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="14" t="s">
-        <v>124</v>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L18" t="str">
         <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
         <v>tenmen 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -6048,27 +6303,29 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="14" t="s">
-        <v>124</v>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L19" t="str">
         <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
         <v>weiper 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -6076,27 +6333,29 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="14" t="s">
-        <v>124</v>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L20" t="str">
         <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v>rayu 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -6104,27 +6363,29 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="14" t="s">
-        <v>124</v>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L21" t="str">
         <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v>oystar 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -6132,27 +6393,29 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="14" t="s">
-        <v>124</v>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L22" t="e">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15">
       <c r="A23" s="3">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -6160,27 +6423,29 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="14" t="s">
-        <v>124</v>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L23" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v>chill 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="15">
       <c r="A24" s="3">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -6188,27 +6453,29 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="14" t="s">
-        <v>124</v>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L24" t="str">
         <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v>kumin 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15">
       <c r="A25" s="3">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
@@ -6216,27 +6483,29 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="14" t="s">
-        <v>124</v>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L25" t="str">
         <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
         <v>garamu 真偽型/BOOREAN (1),</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="15">
       <c r="A26" s="3">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
@@ -6244,27 +6513,29 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="14" t="s">
-        <v>124</v>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L26" t="e">
         <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="15">
       <c r="A27" s="3">
         <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -6272,26 +6543,28 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="14" t="s">
-        <v>124</v>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="L27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="15">
       <c r="A28" s="3">
         <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -6299,23 +6572,25 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15">
       <c r="A29" s="3">
         <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -6323,23 +6598,25 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15">
       <c r="A30" s="3">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
@@ -6347,23 +6624,25 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15">
       <c r="A31" s="3">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
@@ -6371,23 +6650,25 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="3">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
@@ -6395,23 +6676,25 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
@@ -6419,23 +6702,25 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
@@ -6443,23 +6728,25 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
@@ -6467,23 +6754,25 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -6491,23 +6780,25 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
@@ -6515,23 +6806,25 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
@@ -6539,23 +6832,25 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
@@ -6563,23 +6858,25 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
@@ -6587,12 +6884,14 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6612,28 +6911,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C16A6D-A143-47DB-A6D8-2EF5AAB36E40}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="19.149999999999999">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6646,9 +6945,15 @@
       <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -6661,8 +6966,11 @@
       <c r="E3" s="5">
         <v>45459</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.15">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6676,12 +6984,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="13.15">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -6690,7 +6998,7 @@
         <v>45460</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="13.15">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6722,107 +7030,107 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="13.15">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>cooks_seas_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" t="e">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="E11" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>seas_num 整数型/INTEGER (5),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>solty 真偽型/BOOREAN (1),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.15">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>solty 真偽型/BOOREAN (1),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>region 文字列/CHAR (10),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.15">
       <c r="A13" s="3">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6831,28 +7139,38 @@
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>region 文字列/STRING (10)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>seas_column_name 文字列/CHAR (15),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.15">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="3">
+        <v>15</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" ref="L14:L28" si="0">C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>seas_name 文字列/CHAR (15)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.15">
       <c r="A15" s="3">
         <v>6</v>
       </c>
@@ -6864,13 +7182,15 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.15">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -6888,7 +7208,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="13.15">
       <c r="A17" s="3">
         <v>8</v>
       </c>
@@ -6906,7 +7226,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="13.15">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -6924,7 +7244,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="13.15">
       <c r="A19" s="3">
         <v>10</v>
       </c>
@@ -6942,7 +7262,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="13.15">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -6960,7 +7280,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="13.15">
       <c r="A21" s="3">
         <v>12</v>
       </c>
@@ -6978,7 +7298,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="13.15">
       <c r="A22" s="3">
         <v>13</v>
       </c>
@@ -6996,7 +7316,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="13.15">
       <c r="A23" s="3">
         <v>14</v>
       </c>
@@ -7014,7 +7334,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="13.15">
       <c r="A24" s="3">
         <v>15</v>
       </c>
@@ -7032,7 +7352,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="13.15">
       <c r="A25" s="3">
         <v>16</v>
       </c>
@@ -7050,7 +7370,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="13.15">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7068,7 +7388,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="13.15">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7086,7 +7406,7 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="13.15">
       <c r="A28" s="3">
         <v>19</v>
       </c>
@@ -7104,26 +7424,8 @@
         <v xml:space="preserve">  </v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
+    <row r="29" spans="1:12" ht="13.15">
+      <c r="L29" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7135,30 +7437,30 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5219EBD-5880-4EF0-A6E2-CA6466750130}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" customWidth="1"/>
-    <col min="16384" max="16384" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.375" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="16384" max="16384" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="18.75">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7169,10 +7471,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -7185,8 +7493,14 @@
       <c r="E3" s="5">
         <v>45449</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -7197,10 +7511,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -7210,11 +7524,11 @@
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>45461</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -7249,241 +7563,252 @@
         <f>"create table "&amp;C5&amp;" ("</f>
         <v>create table cooks (</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>cooks_num 整数 (5),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>cook_num 整数 (10),</v>
+      </c>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>184</v>
+        <v>49</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L18" si="0">C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>cooks_img 文字列 ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>cooks_name 文字列 (50),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>cook_img 文字列 (17),</v>
+      </c>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>189</v>
+      <c r="B13" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E13" s="3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>cooks_time 整数型 ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>cook_name 文字列 (50),</v>
+      </c>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>203</v>
+      </c>
+      <c r="E14" s="3">
+        <v>50</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>cooks_sta Time型？ ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>cook_time 整数型 (10),</v>
+      </c>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>cooks_fin Time型？←仮置き ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>cook_sta Time型 (8),</v>
+      </c>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>212</v>
+      </c>
+      <c r="E16" s="3">
+        <v>8</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>food_con 文字列 (500),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>cook_fin Time型 (8),</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>8</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>8</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>food_used 文字列 (500),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v>food_con 文字列 (500),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>205</v>
+      <c r="B18" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E18" s="3">
         <v>500</v>
@@ -7491,29 +7816,29 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>seas_con 文字列 (500),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v>food_used 文字列 (500),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>207</v>
+      <c r="B19" s="9" t="s">
+        <v>219</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E19" s="3">
         <v>500</v>
@@ -7521,182 +7846,195 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L19" t="str">
-        <f>C20&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
-        <v>seas_used 文字列 (100),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v>seas_con 文字列 (500),</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20">
+        <v>203</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="L20" t="str">
-        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
-        <v>cooks_satis 整数型 (2),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C21&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
+        <v>seas_used 文字列 (100),</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>12</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2</v>
+        <v>203</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L21" t="str">
         <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
-        <v>aji_satis 整数型 (2),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>cook_satis 整数型 (1),</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="L22" t="str">
         <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
-        <v>cooks_fav 文字列 (4),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>aji_satis 整数型 (1),</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" t="e">
-        <f>C24&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="L23" t="str">
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
+        <v>cook_fav 文字列 (1),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>220</v>
+      <c r="B24" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" ref="L24:L29" si="1">C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J24" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="e">
+        <f>C25&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="3">
+        <v>100</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>17</v>
       </c>
@@ -7710,11 +8048,11 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C27&amp;" "&amp;D27&amp;" "&amp;IF(E27&lt;&gt;"","("&amp;E27&amp;")","")&amp;IF(C28&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>18</v>
       </c>
@@ -7728,16 +8066,16 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C28&amp;" "&amp;D28&amp;" "&amp;IF(E28&lt;&gt;"","("&amp;E28&amp;")","")&amp;IF(C29&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>19</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7746,15 +8084,15 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C29&amp;" "&amp;D29&amp;" "&amp;IF(E29&lt;&gt;"","("&amp;E29&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>20</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7764,11 +8102,11 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <f>C30&amp;" "&amp;D30&amp;" "&amp;IF(E30&lt;&gt;"","("&amp;E30&amp;")","")&amp;IF(C31&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>21</v>
       </c>
@@ -7781,7 +8119,25 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="L30" t="s">
+      <c r="L30" t="str">
+        <f>C31&amp;" "&amp;D31&amp;" "&amp;IF(E31&lt;&gt;"","("&amp;E31&amp;")","")&amp;IF(C32&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7989,37 +8345,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D97D71BB-D793-4663-A3F8-8F4A225EAA2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D97D71BB-D793-4663-A3F8-8F4A225EAA2C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A75D8A-6B11-46C1-8ECA-01D38B0B856A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="87cf0ee8-fe20-4b5a-8adf-0a4439756175"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A75D8A-6B11-46C1-8ECA-01D38B0B856A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DE5A0E-4F95-4D8F-9FD5-83F0930A4188}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25DE5A0E-4F95-4D8F-9FD5-83F0930A4188}"/>
 </file>